--- a/app/Licenciatura_em_Informatica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Informatica_Pos_Laboral.xlsx
@@ -16,62 +16,61 @@
     <sheet name="20153195" sheetId="6" r:id="rId9"/>
     <sheet name="20153240" sheetId="7" r:id="rId10"/>
     <sheet name="20153205" sheetId="8" r:id="rId11"/>
-    <sheet name="20154469" sheetId="9" r:id="rId12"/>
-    <sheet name="20153228" sheetId="10" r:id="rId13"/>
-    <sheet name="20153224" sheetId="11" r:id="rId14"/>
-    <sheet name="20153219" sheetId="12" r:id="rId15"/>
-    <sheet name="20153194" sheetId="13" r:id="rId16"/>
-    <sheet name="20153244" sheetId="14" r:id="rId17"/>
-    <sheet name="20153208" sheetId="15" r:id="rId18"/>
-    <sheet name="20153238" sheetId="16" r:id="rId19"/>
-    <sheet name="20153188" sheetId="17" r:id="rId20"/>
-    <sheet name="20153241" sheetId="18" r:id="rId21"/>
-    <sheet name="20153217" sheetId="19" r:id="rId22"/>
-    <sheet name="20153187" sheetId="20" r:id="rId23"/>
-    <sheet name="20153230" sheetId="21" r:id="rId24"/>
-    <sheet name="20153201" sheetId="22" r:id="rId25"/>
-    <sheet name="20153214" sheetId="23" r:id="rId26"/>
-    <sheet name="20153200" sheetId="24" r:id="rId27"/>
-    <sheet name="20153226" sheetId="25" r:id="rId28"/>
-    <sheet name="20153235" sheetId="26" r:id="rId29"/>
-    <sheet name="20153192" sheetId="27" r:id="rId30"/>
-    <sheet name="20153204" sheetId="28" r:id="rId31"/>
-    <sheet name="20153221" sheetId="29" r:id="rId32"/>
-    <sheet name="20153236" sheetId="30" r:id="rId33"/>
-    <sheet name="20153198" sheetId="31" r:id="rId34"/>
-    <sheet name="20153193" sheetId="32" r:id="rId35"/>
-    <sheet name="20153189" sheetId="33" r:id="rId36"/>
-    <sheet name="20153243" sheetId="34" r:id="rId37"/>
-    <sheet name="20153227" sheetId="35" r:id="rId38"/>
-    <sheet name="20153245" sheetId="36" r:id="rId39"/>
-    <sheet name="20153231" sheetId="37" r:id="rId40"/>
-    <sheet name="20153233" sheetId="38" r:id="rId41"/>
-    <sheet name="20153225" sheetId="39" r:id="rId42"/>
-    <sheet name="20153191" sheetId="40" r:id="rId43"/>
-    <sheet name="20153212" sheetId="41" r:id="rId44"/>
-    <sheet name="20153207" sheetId="42" r:id="rId45"/>
-    <sheet name="20153213" sheetId="43" r:id="rId46"/>
-    <sheet name="20153211" sheetId="44" r:id="rId47"/>
-    <sheet name="20153202" sheetId="45" r:id="rId48"/>
-    <sheet name="20153197" sheetId="46" r:id="rId49"/>
-    <sheet name="20153239" sheetId="47" r:id="rId50"/>
-    <sheet name="20153210" sheetId="48" r:id="rId51"/>
-    <sheet name="20153209" sheetId="49" r:id="rId52"/>
-    <sheet name="20153199" sheetId="50" r:id="rId53"/>
-    <sheet name="20153215" sheetId="51" r:id="rId54"/>
-    <sheet name="20153216" sheetId="52" r:id="rId55"/>
-    <sheet name="20153222" sheetId="53" r:id="rId56"/>
-    <sheet name="20153206" sheetId="54" r:id="rId57"/>
-    <sheet name="20153237" sheetId="55" r:id="rId58"/>
-    <sheet name="20153218" sheetId="56" r:id="rId59"/>
-    <sheet name="20153229" sheetId="57" r:id="rId60"/>
-    <sheet name="20153190" sheetId="58" r:id="rId61"/>
-    <sheet name="20153196" sheetId="59" r:id="rId62"/>
-    <sheet name="20153223" sheetId="60" r:id="rId63"/>
-    <sheet name="20153203" sheetId="61" r:id="rId64"/>
-    <sheet name="20153246" sheetId="62" r:id="rId65"/>
-    <sheet name="Sheet2" sheetId="63" r:id="rId66"/>
-    <sheet name="Sheet3" sheetId="64" r:id="rId67"/>
+    <sheet name="20153228" sheetId="9" r:id="rId12"/>
+    <sheet name="20153224" sheetId="10" r:id="rId13"/>
+    <sheet name="20153219" sheetId="11" r:id="rId14"/>
+    <sheet name="20153194" sheetId="12" r:id="rId15"/>
+    <sheet name="20153244" sheetId="13" r:id="rId16"/>
+    <sheet name="20153208" sheetId="14" r:id="rId17"/>
+    <sheet name="20153238" sheetId="15" r:id="rId18"/>
+    <sheet name="20153188" sheetId="16" r:id="rId19"/>
+    <sheet name="20153241" sheetId="17" r:id="rId20"/>
+    <sheet name="20153217" sheetId="18" r:id="rId21"/>
+    <sheet name="20153187" sheetId="19" r:id="rId22"/>
+    <sheet name="20153230" sheetId="20" r:id="rId23"/>
+    <sheet name="20153201" sheetId="21" r:id="rId24"/>
+    <sheet name="20153214" sheetId="22" r:id="rId25"/>
+    <sheet name="20153200" sheetId="23" r:id="rId26"/>
+    <sheet name="20153226" sheetId="24" r:id="rId27"/>
+    <sheet name="20153235" sheetId="25" r:id="rId28"/>
+    <sheet name="20153192" sheetId="26" r:id="rId29"/>
+    <sheet name="20153204" sheetId="27" r:id="rId30"/>
+    <sheet name="20153221" sheetId="28" r:id="rId31"/>
+    <sheet name="20153236" sheetId="29" r:id="rId32"/>
+    <sheet name="20153198" sheetId="30" r:id="rId33"/>
+    <sheet name="20153193" sheetId="31" r:id="rId34"/>
+    <sheet name="20153189" sheetId="32" r:id="rId35"/>
+    <sheet name="20153243" sheetId="33" r:id="rId36"/>
+    <sheet name="20153227" sheetId="34" r:id="rId37"/>
+    <sheet name="20153245" sheetId="35" r:id="rId38"/>
+    <sheet name="20153231" sheetId="36" r:id="rId39"/>
+    <sheet name="20153233" sheetId="37" r:id="rId40"/>
+    <sheet name="20153225" sheetId="38" r:id="rId41"/>
+    <sheet name="20153191" sheetId="39" r:id="rId42"/>
+    <sheet name="20153212" sheetId="40" r:id="rId43"/>
+    <sheet name="20153207" sheetId="41" r:id="rId44"/>
+    <sheet name="20153213" sheetId="42" r:id="rId45"/>
+    <sheet name="20153211" sheetId="43" r:id="rId46"/>
+    <sheet name="20153202" sheetId="44" r:id="rId47"/>
+    <sheet name="20153197" sheetId="45" r:id="rId48"/>
+    <sheet name="20153239" sheetId="46" r:id="rId49"/>
+    <sheet name="20153210" sheetId="47" r:id="rId50"/>
+    <sheet name="20153209" sheetId="48" r:id="rId51"/>
+    <sheet name="20153199" sheetId="49" r:id="rId52"/>
+    <sheet name="20153215" sheetId="50" r:id="rId53"/>
+    <sheet name="20153216" sheetId="51" r:id="rId54"/>
+    <sheet name="20153222" sheetId="52" r:id="rId55"/>
+    <sheet name="20153206" sheetId="53" r:id="rId56"/>
+    <sheet name="20153237" sheetId="54" r:id="rId57"/>
+    <sheet name="20153218" sheetId="55" r:id="rId58"/>
+    <sheet name="20153229" sheetId="56" r:id="rId59"/>
+    <sheet name="20153190" sheetId="57" r:id="rId60"/>
+    <sheet name="20153196" sheetId="58" r:id="rId61"/>
+    <sheet name="20153223" sheetId="59" r:id="rId62"/>
+    <sheet name="20153203" sheetId="60" r:id="rId63"/>
+    <sheet name="20153246" sheetId="61" r:id="rId64"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId65"/>
+    <sheet name="Sheet3" sheetId="63" r:id="rId66"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -228,9 +227,6 @@
     <t>Maria Elisa F Machonissa</t>
   </si>
   <si>
-    <t>Distrito de Namaacha</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -267,9 +263,6 @@
     <t>Otilia Nhone</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102333608P</t>
   </si>
   <si>
@@ -294,9 +287,6 @@
     <t>Lurdes Baixo Moura</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -390,9 +380,6 @@
     <t>Miseria Mauai</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100785024A</t>
   </si>
   <si>
@@ -402,255 +389,243 @@
     <t>Instituto Comercial de Maputo</t>
   </si>
   <si>
-    <t>Tsimbane</t>
-  </si>
-  <si>
-    <t>João Abilio Madala</t>
+    <t>Timana</t>
+  </si>
+  <si>
+    <t>Jorge Baptista</t>
+  </si>
+  <si>
+    <t>1988-02-05</t>
+  </si>
+  <si>
+    <t>Baptista Timana</t>
+  </si>
+  <si>
+    <t>Ângela Celeste Pondja</t>
+  </si>
+  <si>
+    <t>110504657661N</t>
+  </si>
+  <si>
+    <t>+258826124366</t>
+  </si>
+  <si>
+    <t>Tchavane</t>
+  </si>
+  <si>
+    <t>Jeremias AdÃo</t>
+  </si>
+  <si>
+    <t>1992-06-12</t>
+  </si>
+  <si>
+    <t>AdÃo Rafael Tchavane</t>
+  </si>
+  <si>
+    <t>Virginia Fernando Chilengue</t>
+  </si>
+  <si>
+    <t>100501483449P</t>
+  </si>
+  <si>
+    <t>+258840184420</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>Sumail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Fatau Abibo </t>
+  </si>
+  <si>
+    <t>1992-12-27</t>
+  </si>
+  <si>
+    <t>Abibo Sumail</t>
+  </si>
+  <si>
+    <t>Ngamo Iussufo</t>
+  </si>
+  <si>
+    <t>110101435387B</t>
+  </si>
+  <si>
+    <t>+258826215197</t>
+  </si>
+  <si>
+    <t>Souto</t>
+  </si>
+  <si>
+    <t>Elso Bernardo</t>
+  </si>
+  <si>
+    <t>1994-06-08</t>
+  </si>
+  <si>
+    <t>Bernardo Ismael Souto</t>
+  </si>
+  <si>
+    <t>Judite Jose Chavane</t>
+  </si>
+  <si>
+    <t>1101100641098I</t>
+  </si>
+  <si>
+    <t>+258825293631</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Sitoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelicia Decy Fernando </t>
+  </si>
+  <si>
+    <t>1988-11-04</t>
+  </si>
+  <si>
+    <t>Fernando Alfredo Sitoe</t>
+  </si>
+  <si>
+    <t>Ana Maria Tivane Sitoe</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>110104742780A</t>
+  </si>
+  <si>
+    <t>+258845601778</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Otule</t>
+  </si>
+  <si>
+    <t>Mateus Saugineta</t>
+  </si>
+  <si>
+    <t>1993-08-25</t>
+  </si>
+  <si>
+    <t>Incognito</t>
+  </si>
+  <si>
+    <t>Saugineta Lazaro Otule</t>
+  </si>
+  <si>
+    <t>100100023674F</t>
+  </si>
+  <si>
+    <t>+258824770017</t>
+  </si>
+  <si>
+    <t>Ombe</t>
+  </si>
+  <si>
+    <t>Milton Roberto Dulio</t>
+  </si>
+  <si>
+    <t>1993-03-18</t>
+  </si>
+  <si>
+    <t>Dulio Antonio Ombe</t>
+  </si>
+  <si>
+    <t>Maria Alexandre Sinela</t>
+  </si>
+  <si>
+    <t>110100437239I</t>
+  </si>
+  <si>
+    <t>+258848773719</t>
+  </si>
+  <si>
+    <t>Nzucule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriano Pedro </t>
+  </si>
+  <si>
+    <t>1977-01-01</t>
+  </si>
+  <si>
+    <t>Pedro Vadio Nzucule</t>
+  </si>
+  <si>
+    <t>Celeste Uetimane Guluve</t>
+  </si>
+  <si>
+    <t>110101147821N</t>
+  </si>
+  <si>
+    <t>+258823348339</t>
+  </si>
+  <si>
+    <t>Nhanombe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlÁuzio Jorge Ernesto </t>
+  </si>
+  <si>
+    <t>1983-08-06</t>
+  </si>
+  <si>
+    <t>Jorge Zacarias Nhanombe</t>
+  </si>
+  <si>
+    <t>Isabel Ernesto Chambe</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>110300395224P</t>
+  </si>
+  <si>
+    <t>+258845599166</t>
+  </si>
+  <si>
+    <t>Nhamposse MaÚsse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TomÁs JosÉ </t>
+  </si>
+  <si>
+    <t>1989-08-29</t>
+  </si>
+  <si>
+    <t>Vasco Filipe MaÚsse</t>
+  </si>
+  <si>
+    <t>Cartarina TomÁs Nhamposse</t>
+  </si>
+  <si>
+    <t>110302140366A</t>
+  </si>
+  <si>
+    <t>+258829790273</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Mulimela</t>
+  </si>
+  <si>
+    <t>Arejuste  Ananias</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Timana</t>
-  </si>
-  <si>
-    <t>Jorge Baptista</t>
-  </si>
-  <si>
-    <t>1988-02-05</t>
-  </si>
-  <si>
-    <t>Baptista Timana</t>
-  </si>
-  <si>
-    <t>Ângela Celeste Pondja</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>110504657661N</t>
-  </si>
-  <si>
-    <t>+258826124366</t>
-  </si>
-  <si>
-    <t>Tchavane</t>
-  </si>
-  <si>
-    <t>Jeremias AdÃo</t>
-  </si>
-  <si>
-    <t>1992-06-12</t>
-  </si>
-  <si>
-    <t>AdÃo Rafael Tchavane</t>
-  </si>
-  <si>
-    <t>Virginia Fernando Chilengue</t>
-  </si>
-  <si>
-    <t>100501483449P</t>
-  </si>
-  <si>
-    <t>+258840184420</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>Sumail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdul Fatau Abibo </t>
-  </si>
-  <si>
-    <t>1992-12-27</t>
-  </si>
-  <si>
-    <t>Abibo Sumail</t>
-  </si>
-  <si>
-    <t>Ngamo Iussufo</t>
-  </si>
-  <si>
-    <t>110101435387B</t>
-  </si>
-  <si>
-    <t>+258826215197</t>
-  </si>
-  <si>
-    <t>Souto</t>
-  </si>
-  <si>
-    <t>Elso Bernardo</t>
-  </si>
-  <si>
-    <t>1994-06-08</t>
-  </si>
-  <si>
-    <t>Bernardo Ismael Souto</t>
-  </si>
-  <si>
-    <t>Judite Jose Chavane</t>
-  </si>
-  <si>
-    <t>1101100641098I</t>
-  </si>
-  <si>
-    <t>+258825293631</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Sitoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelicia Decy Fernando </t>
-  </si>
-  <si>
-    <t>1988-11-04</t>
-  </si>
-  <si>
-    <t>Fernando Alfredo Sitoe</t>
-  </si>
-  <si>
-    <t>Ana Maria Tivane Sitoe</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110104742780A</t>
-  </si>
-  <si>
-    <t>+258845601778</t>
-  </si>
-  <si>
-    <t>Outra - Cid.Maputo</t>
-  </si>
-  <si>
-    <t>Otule</t>
-  </si>
-  <si>
-    <t>Mateus Saugineta</t>
-  </si>
-  <si>
-    <t>1993-08-25</t>
-  </si>
-  <si>
-    <t>Incognito</t>
-  </si>
-  <si>
-    <t>Saugineta Lazaro Otule</t>
-  </si>
-  <si>
-    <t>100100023674F</t>
-  </si>
-  <si>
-    <t>+258824770017</t>
-  </si>
-  <si>
-    <t>Ombe</t>
-  </si>
-  <si>
-    <t>Milton Roberto Dulio</t>
-  </si>
-  <si>
-    <t>1993-03-18</t>
-  </si>
-  <si>
-    <t>Dulio Antonio Ombe</t>
-  </si>
-  <si>
-    <t>Maria Alexandre Sinela</t>
-  </si>
-  <si>
-    <t>110100437239I</t>
-  </si>
-  <si>
-    <t>+258848773719</t>
-  </si>
-  <si>
-    <t>Nzucule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriano Pedro </t>
-  </si>
-  <si>
-    <t>1977-01-01</t>
-  </si>
-  <si>
-    <t>Pedro Vadio Nzucule</t>
-  </si>
-  <si>
-    <t>Celeste Uetimane Guluve</t>
-  </si>
-  <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
-    <t>110101147821N</t>
-  </si>
-  <si>
-    <t>+258823348339</t>
-  </si>
-  <si>
-    <t>Nhanombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlÁuzio Jorge Ernesto </t>
-  </si>
-  <si>
-    <t>1983-08-06</t>
-  </si>
-  <si>
-    <t>Jorge Zacarias Nhanombe</t>
-  </si>
-  <si>
-    <t>Isabel Ernesto Chambe</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>110300395224P</t>
-  </si>
-  <si>
-    <t>+258845599166</t>
-  </si>
-  <si>
-    <t>Nhamposse MaÚsse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TomÁs JosÉ </t>
-  </si>
-  <si>
-    <t>1989-08-29</t>
-  </si>
-  <si>
-    <t>Vasco Filipe MaÚsse</t>
-  </si>
-  <si>
-    <t>Cartarina TomÁs Nhamposse</t>
-  </si>
-  <si>
-    <t>110302140366A</t>
-  </si>
-  <si>
-    <t>+258829790273</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Mulimela</t>
-  </si>
-  <si>
-    <t>Arejuste  Ananias</t>
-  </si>
-  <si>
     <t>Muhai</t>
   </si>
   <si>
@@ -666,9 +641,6 @@
     <t>Lurdes Joaquim Canda</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100392649J</t>
   </si>
   <si>
@@ -735,9 +707,6 @@
     <t>EmÍlia Elisa Pelembe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>090101406992A</t>
   </si>
   <si>
@@ -1047,9 +1016,6 @@
     <t>Ivone Boca</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110400404899I</t>
   </si>
   <si>
@@ -1150,9 +1116,6 @@
   </si>
   <si>
     <t>Laura Pascoal Manguengue</t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
   </si>
   <si>
     <t>070100485539C</t>
@@ -2793,7 +2756,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153228</v>
+        <v>20153224</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2896,9 +2859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2906,7 +2867,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2917,7 +2878,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2926,7 +2887,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2938,7 +2899,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2946,7 +2907,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3042,7 +3003,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3069,7 +3030,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3085,7 +3046,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3388,7 +3349,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153224</v>
+        <v>20153219</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3491,9 +3452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3501,7 +3460,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3512,7 +3471,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3521,7 +3480,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3533,7 +3492,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3664,7 +3623,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3680,7 +3639,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3983,7 +3942,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153219</v>
+        <v>20153194</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4007,7 +3966,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4023,7 +3982,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4039,7 +3998,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4055,7 +4014,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4071,7 +4030,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4086,9 +4045,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4096,7 +4053,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4107,7 +4064,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4116,7 +4073,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4128,7 +4085,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4136,7 +4093,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4232,7 +4189,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4275,7 +4232,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4578,7 +4535,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153194</v>
+        <v>20153244</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4681,9 +4638,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4691,7 +4646,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4702,7 +4657,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4711,7 +4666,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4723,7 +4678,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4731,7 +4686,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4827,7 +4782,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4854,7 +4809,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4870,7 +4825,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5173,7 +5128,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153244</v>
+        <v>20153208</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5197,7 +5152,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5213,7 +5168,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5229,7 +5184,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5245,7 +5200,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5261,7 +5216,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5276,9 +5231,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5286,7 +5239,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5297,7 +5250,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5306,7 +5259,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5318,7 +5271,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5449,7 +5402,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5465,7 +5418,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5768,7 +5721,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153208</v>
+        <v>20153238</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5792,7 +5745,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5808,7 +5761,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5824,7 +5777,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5840,7 +5793,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5856,7 +5809,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5871,9 +5824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5881,7 +5832,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5892,7 +5843,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5901,7 +5852,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5913,7 +5864,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5921,7 +5872,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6017,7 +5968,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6044,7 +5995,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6060,7 +6011,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6363,7 +6314,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153238</v>
+        <v>20153188</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6387,7 +6338,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6403,7 +6354,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6419,7 +6370,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6435,7 +6386,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6451,7 +6402,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6466,9 +6417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6476,7 +6425,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6487,7 +6436,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6496,7 +6445,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6508,7 +6457,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6516,7 +6465,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6612,7 +6561,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6639,7 +6588,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6655,7 +6604,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6958,7 +6907,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153188</v>
+        <v>20153241</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6982,7 +6931,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6998,7 +6947,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7014,7 +6963,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7030,7 +6979,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7046,7 +6995,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7061,9 +7010,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7071,7 +7018,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7082,7 +7029,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7091,7 +7038,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7103,7 +7050,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7111,7 +7058,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7207,7 +7154,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7234,7 +7181,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7250,7 +7197,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7553,7 +7500,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153241</v>
+        <v>20153217</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7577,7 +7524,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7593,7 +7540,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7609,7 +7556,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7625,7 +7572,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7641,7 +7588,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7656,9 +7603,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7666,7 +7611,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7677,7 +7622,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7686,7 +7631,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7698,7 +7643,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7706,7 +7651,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7802,7 +7747,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7829,7 +7774,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7845,7 +7790,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8148,7 +8093,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153217</v>
+        <v>20153187</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8172,7 +8117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8188,7 +8133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8203,9 +8148,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>182</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8219,9 +8162,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8235,9 +8176,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8251,18 +8190,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8271,18 +8206,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8292,17 +8223,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8397,7 +8324,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8423,9 +8350,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8439,9 +8364,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8846,9 +8769,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8856,7 +8777,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8867,7 +8788,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8876,7 +8797,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8888,7 +8809,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8896,7 +8817,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8992,7 +8913,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9035,7 +8956,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9338,7 +9259,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153187</v>
+        <v>20153230</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9362,7 +9283,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9378,7 +9299,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9393,7 +9314,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9407,7 +9330,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9421,7 +9346,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9442,7 +9369,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9451,14 +9380,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9468,13 +9401,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9569,7 +9506,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9595,7 +9532,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9609,7 +9548,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9911,7 +9852,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153230</v>
+        <v>20153201</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9935,7 +9876,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9951,7 +9892,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9967,7 +9908,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9983,7 +9924,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9999,7 +9940,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10014,9 +9955,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10024,7 +9963,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10035,7 +9974,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10044,7 +9983,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10056,7 +9995,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10064,7 +10003,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10160,7 +10099,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10203,7 +10142,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10506,7 +10445,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153201</v>
+        <v>20153214</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10530,7 +10469,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10546,7 +10485,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10562,7 +10501,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10578,7 +10517,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10594,7 +10533,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10609,9 +10548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10619,7 +10556,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10630,7 +10567,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10639,7 +10576,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10651,7 +10588,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10659,7 +10596,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10755,7 +10692,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10782,7 +10719,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10798,7 +10735,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11101,7 +11038,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153214</v>
+        <v>20153200</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11125,7 +11062,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11141,7 +11078,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11157,7 +11094,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11173,7 +11110,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11189,7 +11126,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11204,9 +11141,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11214,7 +11149,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11225,7 +11160,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11234,7 +11169,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11246,7 +11181,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11254,7 +11189,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11350,7 +11285,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11377,7 +11312,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11393,7 +11328,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11696,7 +11631,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153200</v>
+        <v>20153226</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11720,7 +11655,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11736,7 +11671,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11752,7 +11687,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11768,7 +11703,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11784,7 +11719,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11799,9 +11734,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11809,7 +11742,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11820,7 +11753,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11829,7 +11762,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11841,7 +11774,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11849,7 +11782,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11945,7 +11878,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11972,7 +11905,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11988,7 +11921,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12291,7 +12224,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153226</v>
+        <v>20153235</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12315,7 +12248,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12331,7 +12264,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12347,7 +12280,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12363,7 +12296,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12379,7 +12312,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12394,9 +12327,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12404,7 +12335,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12415,7 +12346,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12424,7 +12355,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12436,7 +12367,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12444,7 +12375,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12540,7 +12471,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12567,7 +12498,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12583,7 +12514,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12886,7 +12817,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153235</v>
+        <v>20153192</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12910,7 +12841,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12926,7 +12857,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12942,7 +12873,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12958,7 +12889,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12974,7 +12905,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12989,9 +12920,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12999,7 +12928,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13010,7 +12939,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13019,7 +12948,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13031,7 +12960,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13039,7 +12968,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13135,7 +13064,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13162,7 +13091,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13178,7 +13107,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13481,7 +13410,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153192</v>
+        <v>20153204</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13505,7 +13434,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13521,7 +13450,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13537,7 +13466,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13553,7 +13482,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13569,7 +13498,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13584,9 +13513,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13594,7 +13521,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13605,7 +13532,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13614,7 +13541,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13626,7 +13553,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13634,7 +13561,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13730,7 +13657,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13757,7 +13684,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13773,7 +13700,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14076,7 +14003,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153204</v>
+        <v>20153221</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14100,7 +14027,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14116,7 +14043,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14132,7 +14059,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14148,7 +14075,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14164,7 +14091,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14179,9 +14106,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14189,7 +14114,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14200,7 +14125,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14209,7 +14134,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14221,7 +14146,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14229,7 +14154,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14325,7 +14250,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14352,7 +14277,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14368,7 +14293,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14671,7 +14596,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153221</v>
+        <v>20153236</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14695,7 +14620,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14711,7 +14636,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14727,7 +14652,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14743,7 +14668,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14759,7 +14684,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14774,9 +14699,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14784,7 +14707,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14795,7 +14718,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14804,7 +14727,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14816,7 +14739,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14824,7 +14747,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14920,7 +14843,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14963,7 +14886,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15290,7 +15213,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15306,7 +15229,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15322,7 +15245,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15338,7 +15261,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15354,7 +15277,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15369,9 +15292,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15379,7 +15300,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15390,7 +15311,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15399,7 +15320,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15411,7 +15332,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15419,7 +15340,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15515,7 +15436,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15558,7 +15479,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15861,7 +15782,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153236</v>
+        <v>20153198</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15885,7 +15806,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15901,7 +15822,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15917,7 +15838,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15933,7 +15854,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15949,7 +15870,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15964,9 +15885,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15974,7 +15893,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15985,7 +15904,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15994,7 +15913,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16006,7 +15925,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16014,7 +15933,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16110,7 +16029,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16137,7 +16056,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16153,7 +16072,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16456,7 +16375,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153198</v>
+        <v>20153193</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16480,7 +16399,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16496,7 +16415,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16512,7 +16431,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16528,7 +16447,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16544,7 +16463,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16559,9 +16478,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16569,7 +16486,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16580,7 +16497,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16589,7 +16506,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16601,7 +16518,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16609,7 +16526,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16705,7 +16622,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16732,7 +16649,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16748,7 +16665,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17051,7 +16968,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153193</v>
+        <v>20153189</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17075,7 +16992,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17091,7 +17008,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17107,7 +17024,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17123,7 +17040,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17139,7 +17056,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17154,9 +17071,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17164,7 +17079,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17175,7 +17090,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17184,7 +17099,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17196,7 +17111,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>278</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17204,7 +17119,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17300,7 +17215,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17327,7 +17242,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17343,7 +17258,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17646,7 +17561,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153189</v>
+        <v>20153243</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17670,7 +17585,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17686,7 +17601,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17702,7 +17617,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17718,7 +17633,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17734,7 +17649,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17749,9 +17664,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17759,7 +17672,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17770,7 +17683,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17779,7 +17692,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17791,7 +17704,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17799,7 +17712,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17895,7 +17808,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17922,7 +17835,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17938,7 +17851,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18241,7 +18154,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153243</v>
+        <v>20153227</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18265,7 +18178,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18281,7 +18194,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18297,7 +18210,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18313,7 +18226,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18329,7 +18242,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18344,9 +18257,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18354,7 +18265,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18365,7 +18276,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18374,7 +18285,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18386,7 +18297,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18394,7 +18305,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18490,7 +18401,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18517,7 +18428,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18533,7 +18444,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18836,7 +18747,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153227</v>
+        <v>20153245</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18860,7 +18771,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18876,7 +18787,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18892,7 +18803,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18908,7 +18819,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18924,7 +18835,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18939,9 +18850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18949,7 +18858,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18960,7 +18869,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18969,7 +18878,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18981,7 +18890,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18989,7 +18898,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19085,7 +18994,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19112,7 +19021,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19128,7 +19037,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19431,7 +19340,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153245</v>
+        <v>20153231</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19455,7 +19364,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19471,7 +19380,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19487,7 +19396,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19503,7 +19412,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19519,7 +19428,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19534,9 +19443,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19544,7 +19451,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19555,7 +19462,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19564,7 +19471,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19576,7 +19483,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19584,7 +19491,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19680,7 +19587,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19707,7 +19614,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19723,7 +19630,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20026,7 +19933,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153231</v>
+        <v>20153233</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20050,7 +19957,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20066,7 +19973,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20082,7 +19989,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20098,7 +20005,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20114,7 +20021,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20129,9 +20036,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20139,7 +20044,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20150,7 +20055,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20159,7 +20064,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20171,7 +20076,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20179,7 +20084,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20275,7 +20180,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20302,7 +20207,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20318,7 +20223,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20621,7 +20526,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153233</v>
+        <v>20153225</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20645,7 +20550,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20661,7 +20566,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20677,7 +20582,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20693,7 +20598,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20709,7 +20614,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20724,9 +20629,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>322</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20734,7 +20637,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20745,7 +20648,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20754,7 +20657,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20766,7 +20669,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20774,7 +20677,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20870,7 +20773,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20897,7 +20800,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20913,7 +20816,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21216,7 +21119,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153225</v>
+        <v>20153191</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21240,7 +21143,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21256,7 +21159,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21272,7 +21175,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21288,7 +21191,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21304,7 +21207,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21319,9 +21222,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21329,7 +21230,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21340,7 +21241,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21349,7 +21250,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21361,7 +21262,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21369,7 +21270,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21465,7 +21366,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21492,7 +21393,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21508,7 +21409,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21835,7 +21736,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21851,7 +21752,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21867,7 +21768,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21883,7 +21784,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21899,7 +21800,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21914,9 +21815,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21924,7 +21823,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21935,7 +21834,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21944,7 +21843,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21956,7 +21855,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22060,7 +21959,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22103,7 +22002,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22406,7 +22305,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153191</v>
+        <v>20153212</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22430,7 +22329,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22446,7 +22345,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22462,7 +22361,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22478,7 +22377,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22494,7 +22393,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22509,9 +22408,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22519,7 +22416,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22530,7 +22427,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22539,7 +22436,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22551,7 +22448,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22559,7 +22456,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22655,7 +22552,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22682,7 +22579,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22698,7 +22595,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23001,7 +22898,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153212</v>
+        <v>20153207</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23025,7 +22922,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23041,7 +22938,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23057,7 +22954,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23073,7 +22970,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23089,7 +22986,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23104,9 +23001,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23114,7 +23009,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23125,7 +23020,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23134,7 +23029,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23146,7 +23041,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23154,7 +23049,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23250,7 +23145,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23277,7 +23172,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23293,7 +23188,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23596,7 +23491,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153207</v>
+        <v>20153213</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23620,7 +23515,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23636,7 +23531,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23652,7 +23547,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23668,7 +23563,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23684,7 +23579,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23699,9 +23594,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23709,7 +23602,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23720,7 +23613,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23729,7 +23622,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23741,7 +23634,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23749,7 +23642,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23845,7 +23738,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23888,7 +23781,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24191,7 +24084,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153213</v>
+        <v>20153211</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24215,7 +24108,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24231,7 +24124,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24247,7 +24140,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24263,7 +24156,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24279,7 +24172,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24294,9 +24187,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>357</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24304,7 +24195,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24315,7 +24206,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24324,7 +24215,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24336,7 +24227,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24344,7 +24235,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24440,7 +24331,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24467,7 +24358,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24483,7 +24374,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24786,7 +24677,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153211</v>
+        <v>20153202</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24810,7 +24701,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24826,7 +24717,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24842,7 +24733,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24858,7 +24749,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24874,7 +24765,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24889,9 +24780,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24899,7 +24788,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24910,7 +24799,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24919,7 +24808,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24931,7 +24820,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24939,7 +24828,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25035,7 +24924,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25062,7 +24951,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25078,7 +24967,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25381,7 +25270,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153202</v>
+        <v>20153197</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25405,7 +25294,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25421,7 +25310,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25437,7 +25326,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25453,7 +25342,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25469,7 +25358,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25484,9 +25373,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25494,7 +25381,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25505,7 +25392,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25514,7 +25401,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25526,7 +25413,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25534,7 +25421,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25630,7 +25517,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25673,7 +25560,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25976,7 +25863,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153197</v>
+        <v>20153239</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26000,7 +25887,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26016,7 +25903,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26032,7 +25919,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26048,7 +25935,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26064,7 +25951,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26079,9 +25966,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26089,7 +25974,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26100,7 +25985,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26109,7 +25994,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26121,7 +26006,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26129,7 +26014,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26225,7 +26110,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26252,7 +26137,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26268,7 +26153,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26571,7 +26456,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153239</v>
+        <v>20153210</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26595,7 +26480,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26611,7 +26496,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26627,7 +26512,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26643,7 +26528,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26659,7 +26544,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26674,9 +26559,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26684,7 +26567,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26695,7 +26578,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26704,7 +26587,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26716,7 +26599,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26724,7 +26607,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26820,7 +26703,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26847,7 +26730,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26863,7 +26746,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27166,7 +27049,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153210</v>
+        <v>20153209</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27190,7 +27073,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27206,7 +27089,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27222,7 +27105,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27238,7 +27121,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27254,7 +27137,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27269,9 +27152,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>322</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27279,7 +27160,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27290,7 +27171,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27299,7 +27180,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27311,7 +27192,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27319,7 +27200,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27415,7 +27296,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27442,7 +27323,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27458,7 +27339,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27761,7 +27642,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153209</v>
+        <v>20153199</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27785,7 +27666,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27801,7 +27682,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27817,7 +27698,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27833,7 +27714,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27849,7 +27730,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27864,9 +27745,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27874,7 +27753,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27885,7 +27764,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27894,7 +27773,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27906,7 +27785,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27914,7 +27793,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28010,7 +27889,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28037,7 +27916,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28053,7 +27932,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28380,7 +28259,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28396,7 +28275,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28412,7 +28291,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28428,7 +28307,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28444,7 +28323,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28459,9 +28338,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28469,7 +28346,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28480,7 +28357,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28489,7 +28366,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28501,7 +28378,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28509,7 +28386,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28605,7 +28482,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28648,7 +28525,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28951,7 +28828,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153199</v>
+        <v>20153215</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28975,7 +28852,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28991,7 +28868,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29007,7 +28884,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29023,7 +28900,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29039,7 +28916,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29054,9 +28931,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29064,7 +28939,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29075,7 +28950,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29084,7 +28959,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29096,7 +28971,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29104,7 +28979,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29200,7 +29075,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29227,7 +29102,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29243,7 +29118,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29546,7 +29421,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153215</v>
+        <v>20153216</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29570,7 +29445,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29586,7 +29461,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29602,7 +29477,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29618,7 +29493,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29634,7 +29509,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29649,9 +29524,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>322</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29659,7 +29532,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29670,7 +29543,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29679,7 +29552,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29691,7 +29564,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29699,7 +29572,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29795,7 +29668,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29822,7 +29695,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29838,7 +29711,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30141,7 +30014,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153216</v>
+        <v>20153222</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -30165,7 +30038,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30181,7 +30054,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30197,7 +30070,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30213,7 +30086,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30229,7 +30102,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30244,9 +30117,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30254,7 +30125,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30265,7 +30136,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30274,7 +30145,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30286,7 +30157,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30294,7 +30165,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30390,7 +30261,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30417,7 +30288,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -30433,7 +30304,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30736,7 +30607,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153222</v>
+        <v>20153206</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -30760,7 +30631,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30776,7 +30647,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30792,7 +30663,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30808,7 +30679,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30824,7 +30695,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30839,9 +30710,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30849,7 +30718,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30860,7 +30729,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30869,7 +30738,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30881,7 +30750,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30889,7 +30758,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30985,7 +30854,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31012,7 +30881,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -31028,7 +30897,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31331,7 +31200,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153206</v>
+        <v>20153237</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -31355,7 +31224,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31371,7 +31240,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31387,7 +31256,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31403,7 +31272,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31419,7 +31288,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31434,9 +31303,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31444,7 +31311,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31455,7 +31322,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31464,7 +31331,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31476,15 +31343,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>436</v>
+      <c r="H17" s="20">
+        <v>4188540</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31580,7 +31447,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31607,7 +31474,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -31623,7 +31490,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31926,7 +31793,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153237</v>
+        <v>20153218</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -31950,7 +31817,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31966,7 +31833,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31982,7 +31849,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31998,7 +31865,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32014,7 +31881,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32029,9 +31896,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32039,7 +31904,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32050,7 +31915,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32059,7 +31924,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32071,15 +31936,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>4188540</v>
+      <c r="H17" s="20" t="s">
+        <v>437</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32175,7 +32040,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32202,7 +32067,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -32218,7 +32083,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32521,7 +32386,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153218</v>
+        <v>20153229</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32545,7 +32410,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32561,7 +32426,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32577,7 +32442,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32593,7 +32458,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32609,7 +32474,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32624,9 +32489,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>322</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32634,7 +32497,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32645,7 +32508,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32654,7 +32517,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32666,7 +32529,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32674,7 +32537,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32770,7 +32633,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32797,7 +32660,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -32813,7 +32676,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33116,7 +32979,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153229</v>
+        <v>20153190</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33140,7 +33003,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33156,7 +33019,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33172,7 +33035,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33188,7 +33051,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33204,7 +33067,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33219,9 +33082,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33229,7 +33090,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33240,7 +33101,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33249,7 +33110,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33261,7 +33122,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33269,7 +33130,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33365,7 +33226,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33392,7 +33253,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -33408,7 +33269,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33711,7 +33572,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153190</v>
+        <v>20153196</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33735,7 +33596,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33751,7 +33612,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33767,7 +33628,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33783,7 +33644,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33799,7 +33660,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33814,9 +33675,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33824,7 +33683,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33835,7 +33694,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33844,7 +33703,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33856,7 +33715,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>457</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33864,7 +33723,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33960,7 +33819,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33987,7 +33846,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -34003,7 +33862,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34306,7 +34165,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153196</v>
+        <v>20153223</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -34330,7 +34189,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34346,7 +34205,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34362,7 +34221,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34378,7 +34237,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34394,7 +34253,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34409,9 +34268,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34419,7 +34276,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34430,7 +34287,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34439,7 +34296,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34451,7 +34308,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34459,7 +34316,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34555,7 +34412,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34582,7 +34439,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -34598,7 +34455,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34925,7 +34782,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34941,7 +34798,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34957,7 +34814,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34973,7 +34830,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34989,7 +34846,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35004,9 +34861,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35014,7 +34869,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35025,7 +34880,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35034,7 +34889,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35046,7 +34901,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35054,7 +34909,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35150,7 +35005,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35193,7 +35048,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35496,7 +35351,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153223</v>
+        <v>20153203</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -35520,7 +35375,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35536,7 +35391,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35552,7 +35407,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35568,7 +35423,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35584,7 +35439,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35599,9 +35454,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35609,7 +35462,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35620,7 +35473,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35629,7 +35482,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35641,7 +35494,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35649,7 +35502,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35745,7 +35598,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35772,7 +35625,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -35788,7 +35641,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36091,7 +35944,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153203</v>
+        <v>20153246</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -36115,7 +35968,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36131,7 +35984,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36147,7 +36000,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36163,7 +36016,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36179,7 +36032,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36194,9 +36047,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36204,7 +36055,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36215,7 +36066,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36224,7 +36075,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36236,7 +36087,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36244,7 +36095,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36340,7 +36191,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36367,7 +36218,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -36383,7 +36234,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36586,601 +36437,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153246</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -37204,7 +36460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37361,7 +36617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37377,7 +36633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37393,7 +36649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -37409,7 +36665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -37425,7 +36681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -37440,9 +36696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -37450,7 +36704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37461,7 +36715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37470,7 +36724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37482,7 +36736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -37490,7 +36744,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37586,7 +36840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37629,7 +36883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37956,7 +37210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37972,7 +37226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37988,7 +37242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38004,7 +37258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38020,7 +37274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38035,9 +37289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38045,7 +37297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38056,7 +37308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38065,7 +37317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38077,7 +37329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38085,7 +37337,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38181,7 +37433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38224,7 +37476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38475,7 +37727,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -38525,7 +37779,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154469</v>
+        <v>20153228</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -38549,7 +37803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38565,7 +37819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38580,7 +37834,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -38594,7 +37850,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -38608,7 +37866,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -38629,7 +37889,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -38638,14 +37900,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -38655,13 +37921,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -38782,7 +38052,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -38796,7 +38068,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
